--- a/assets/docs/Curriculum.xlsx
+++ b/assets/docs/Curriculum.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00.Dev\perfil\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00.GitHub\leoespinoza.github.io\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67010712-68B6-488E-B48F-9EA8E2EAD0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7B3C6-314F-41C5-BDB7-A60C6C8E411E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2BCBF2E3-DDAA-477D-AF21-CE09724EFD16}"/>
   </bookViews>
@@ -80,722 +80,722 @@
     <t>PROPIYA</t>
   </si>
   <si>
-    <t>Startup, Servicios</t>
-  </si>
-  <si>
     <t>Consultor/Project manager/Desarrollador senior</t>
   </si>
   <si>
-    <t>• Backend: MongoDb, Mongoose, Express, passport, axios, mocha
-• Frontend: React, React Hooks,React-router, Redux,PassportJS, Axios, Tailwind CSS, MercadoPago
+    <t>Implementación exitosa de la primera fase del MVP</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>BN VALORES - GURUNET</t>
+  </si>
+  <si>
+    <t>mejoras en los tiempos de respuesta y mejor rendimiento de la app</t>
+  </si>
+  <si>
+    <t>RUTERO</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Implementación exitosa de la integración y componentes</t>
+  </si>
+  <si>
+    <t>Consultor/ Desarrollador senior</t>
+  </si>
+  <si>
+    <t>Desarrollo de múltiples servicios en diferentes entornos para el proyecto Hawkeye - Sistema de detección por video en bodegas de mercado libre</t>
+  </si>
+  <si>
+    <t>MERCADO LIBRE - UNX</t>
+  </si>
+  <si>
+    <t>Agroindustria/ Software</t>
+  </si>
+  <si>
+    <t>INSTITUTO NACIONAL DEL CAFÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultor/ Desarrollador senior </t>
+  </si>
+  <si>
+    <t>reducción de un 40% en los tiempos de inspección y reducción en un 70% en los errores de captura de información</t>
+  </si>
+  <si>
+    <t>México</t>
+  </si>
+  <si>
+    <t>MULTIAPOYO PRESTALANA</t>
+  </si>
+  <si>
+    <t>Cumplimiento de la totalidad de la migración en los tiempos estimados del proyecto</t>
+  </si>
+  <si>
+    <t>Gobierno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultor/Líder técnico/Desarrollador senior. </t>
+  </si>
+  <si>
+    <t>CODELCO - AXITY</t>
+  </si>
+  <si>
+    <t>Incorporación de indicadores y métricas que permitieron dar una mejor visualización en la gestión de los procesos de comercialización y mejoras en la transparencia y normativa de los procesos</t>
+  </si>
+  <si>
+    <t>Destacado</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>FID SEGUROS</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Consultor/Dba senior</t>
+  </si>
+  <si>
+    <t>Desarrollar un panel de monitorización en tiempo real de BD de SQL Server y detección de operaciones problemáticas y documentación y migración de base de datos diferentes entornos.</t>
+  </si>
+  <si>
+    <t>CORPORACIÓN SANTO TOMAS</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Implementación exitosa del proyecto</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorporación de indicadores y métricas
+Reducción en el rechazo de postulaciones de un 40% </t>
+  </si>
+  <si>
+    <t>TICKETPRO – PROSYS</t>
+  </si>
+  <si>
+    <t>Comercio</t>
+  </si>
+  <si>
+    <t>Diseño y desarrollo de Dashboard de gestión de venta de entradas</t>
+  </si>
+  <si>
+    <t>Implementación exitosa de la primera fase del panel de gestión.</t>
+  </si>
+  <si>
+    <t>HDI SEGUROS - PROSYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultor/Desarrollador senior </t>
+  </si>
+  <si>
+    <t>Reducción de promedio 70 días del proceso de aprobación de pago de facturas a menos de 30 días.</t>
+  </si>
+  <si>
+    <t>•	Mejoras en rendimiento y tiempos de acceso de 1.30 min de acceso a   11 seg.
+•	Acceso móvil al portal
+•	Unificación de múltiples servicios con un solo acceso</t>
+  </si>
+  <si>
+    <t>ADEXUS</t>
+  </si>
+  <si>
+    <t>Implementación exitosa del Dashboard y reportes de detalle.</t>
+  </si>
+  <si>
+    <t>MINISTERIO DE EDUCACIÓN - ADEXUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultor/Project manager/Desarrollador senior </t>
+  </si>
+  <si>
+    <t>•	Implementación exitosa de la plataforma.
+•	Transparencia de los procesos de reconocimiento.
+•	En la etapa de lanzamiento se redujo en un 30% el tiempo completo de resolución.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPERINTENDENCIA DE EDUCACIÓN- </t>
+  </si>
+  <si>
+    <t>•	Implementación exitosa de la plataforma.
+•	Transparencia de los procesos de inspección.
+•	La plataforma no se lanzó por cambio de gobierno y políticas</t>
+  </si>
+  <si>
+    <t>ICONSTRUYE</t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>Implementación exitosa de la integración.</t>
+  </si>
+  <si>
+    <t>Consultor/Desarrollador senior.</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE LAS AMÉRICAS</t>
+  </si>
+  <si>
+    <t>BANCO BCI - ASICOM</t>
+  </si>
+  <si>
+    <t>Jefe de Proyecto/Consultor/Desarrollador senior</t>
+  </si>
+  <si>
+    <t>Reducción de los tiempos de generación de reportes de 1 semana a menos de 10 min promedio</t>
+  </si>
+  <si>
+    <t>MINERA ESCONDIDA - ASICOM</t>
+  </si>
+  <si>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>Jefe de Proyecto/Consultor/Desarrolladorsenior</t>
+  </si>
+  <si>
+    <t>Implementación exitosa de la de la primera fase de la plataforma.</t>
+  </si>
+  <si>
+    <t>CÁMARA CHILENA DE LA CONSTRUCCIÓN - ASICOM</t>
+  </si>
+  <si>
+    <t>CODELCO – TATA CONSULTING</t>
+  </si>
+  <si>
+    <t>•	Implementación exitosa de la plataforma.
+•	Transparencia y estandarización de los procesos de gestión de contratos. Y la definición de tipos de contratos de acuerdo al sector o servicio a contratar</t>
+  </si>
+  <si>
+    <t>Agroindustria</t>
+  </si>
+  <si>
+    <t>•	Implementación exitosa de la plataforma.
+•	Mejora en la tasa de resolución de reclamos de un 40%</t>
+  </si>
+  <si>
+    <t>Menor</t>
+  </si>
+  <si>
+    <t>Equipo</t>
+  </si>
+  <si>
+    <t>Consultor/Desarrollador</t>
+  </si>
+  <si>
+    <t>Tareas</t>
+  </si>
+  <si>
+    <t>Lider Técnico/ Consultor/ Desarrollador senior</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Web</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>windows</t>
+  </si>
+  <si>
+    <t>Mejoras en 5 seg prom. en consultas y  8 seg en autenticación</t>
+  </si>
+  <si>
+    <t>Migración de app Banca movil Banpro de entorno Java a React Native (Fase I); desarrollo de mejoras y nuevas funcionalidades (Fase III)</t>
+  </si>
+  <si>
+    <t>Consultor/Líder Técnico/Desarrollador senior</t>
+  </si>
+  <si>
+    <t>Desarrollo e Implementación de modulo y apis para aplicación web de reservas outdoor para Integración con MercadoPago modelo Marketplace y el modulo para gestionar el proceso de reserva  y autorización de clientes y vendedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultor/Lider Tecnico/Desarrollador senior </t>
+  </si>
+  <si>
+    <t>Diseño y desarrollo de aplicación de Integración de órdenes de compra del Marketplace de Iconstruye con la plataforma SAP de Salfa a traves de Biztalk</t>
+  </si>
+  <si>
+    <t>Desarrollo de aplicación de integración entre Microsoft Dynamics CRM y Sharepoint e Implementación de portal de socios de la cámara</t>
+  </si>
+  <si>
+    <t>Inicio</t>
+  </si>
+  <si>
+    <t>Fin</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>Minería/ Software</t>
+  </si>
+  <si>
+    <t>Retail/ Software</t>
+  </si>
+  <si>
+    <t>Software SaaS/ Reservas</t>
+  </si>
+  <si>
+    <t>Software SaaS/ ERP</t>
+  </si>
+  <si>
+    <t>Gobierno/ Educación</t>
+  </si>
+  <si>
+    <t>Servicios/ Software</t>
+  </si>
+  <si>
+    <t>VIÑA SANTA RITA</t>
+  </si>
+  <si>
+    <t>MONOBLOCK</t>
+  </si>
+  <si>
+    <t>Migración de sitio Prestashop 1.6.1.19 a 1.7.8.8</t>
+  </si>
+  <si>
+    <t>Migración exitosa en los tiempos establecidos</t>
+  </si>
+  <si>
+    <t>PELUFFO</t>
+  </si>
+  <si>
+    <t>Desarrollo y mantención de proceso de integración y sincronización de productos y órdenes de compra entre ERP de la empresa y  Prestashop.</t>
+  </si>
+  <si>
+    <t>DISTRITO CAFETERO</t>
+  </si>
+  <si>
+    <t>Implementación e integración exitosa del proyecto</t>
+  </si>
+  <si>
+    <t>Integración exitosa en los tiempos acordados</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>3djoin</t>
+  </si>
+  <si>
+    <t>transparencia y simplificación de los proceso de despacho para clientes y vendedores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freightcenter </t>
+  </si>
+  <si>
+    <t>Aumento en la retención de clientes en un 40%</t>
+  </si>
+  <si>
+    <t>Laamba Futsal</t>
+  </si>
+  <si>
+    <t>Desarrollo de aplicación web que permite la organización y gestión de campeonatos de fútbol</t>
+  </si>
+  <si>
+    <t>Implementación exitosa de la primera fase del proyecto</t>
+  </si>
+  <si>
+    <t>Sysde - spanish121online.com</t>
+  </si>
+  <si>
+    <t>Diseño y desarrollo de tema con WordPress a medida y de manera nativa que permita la edición sencilla para el administrador con configuración para  varios idiomas .</t>
+  </si>
+  <si>
+    <t>Implementación exitosa  del proyecto</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>• Diseñar y desarrollar un tema con WordPress a medida que facilite la edición del contenido y el manejo de los idiomas.
+• Implementar un formulario de contacto con contact form 7
+• Hacer la web  compatible con varios navegadores y dispositivos
+Añadir animaciones básicas de navegación</t>
+  </si>
+  <si>
+    <t>Creación de plugin para sincronizar automáticamente los pedidos de sitio web de WooCommerce con  las APIs de empresa de despacho.</t>
+  </si>
+  <si>
+    <t>• Análisis y preparación del entorno de desarrollo: Desarrollo de plugin que gestiona la creación y sincronización automática de guías desde la API de la empresa de despacho al sitio de WooCommerce.
+• Desarrollo de panel de administración y campos necesarios para la gestión de guías en las ordenes de woocommerce
+• Desarrollo de los escucha y lectura de eventos de guías y actualización automatica de estatus en ordenes de woocommerce
+Pruebas y monitoreo: Ejecución de pruebas y monitoreo exhaustivo de generación y gestión de  guias para verificación de correcto proceso de integración.</t>
+  </si>
+  <si>
+    <t>Imporlan.cl</t>
+  </si>
+  <si>
+    <t>Thebabies.cr</t>
+  </si>
+  <si>
+    <t>Mejora de la velocidad de carga de un sitio woocommerce en producción.</t>
+  </si>
+  <si>
+    <t>Mejora del puntaje de performance del sitio de 79 a 57 puntos</t>
+  </si>
+  <si>
+    <t>Compukaed - D12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación de plugin que permita validar el DNI de un comprador  contra Api del gobierno del Perú (SUNAT y RENIEC)en el checkout (empresa o individuo) </t>
+  </si>
+  <si>
+    <t>Perú</t>
+  </si>
+  <si>
+    <t>Madeinitaly</t>
+  </si>
+  <si>
+    <t>Plugin para agregar propiedades y cálculos adicionales en productos</t>
+  </si>
+  <si>
+    <t>Panamá</t>
+  </si>
+  <si>
+    <t>Marae</t>
+  </si>
+  <si>
+    <t>Desarro de tema personalizado para Shopify con Liquid</t>
+  </si>
+  <si>
+    <t>Prestashop 1.7.8.8| Mysql|Php| Symfony | AWS Sailt</t>
+  </si>
+  <si>
+    <t>Frameworks: Node.js| Expo CLI| React Native CLI| React Native Paper| React Native Elements| NativeBase| React Native UI Kitten| React Native (Navigation| Linking| Push Notification| Permissions| Device Info| FS| etc)| Redux| Axios/ Tools: VisualCode</t>
+  </si>
+  <si>
+    <t>movil  -android| ios-</t>
+  </si>
+  <si>
+    <t>Diseño| desarrollo de mejoras y nuevas funcionalidades| mantención de aplicación de punto de venta para Argentina| Chile| Uruguay -tablet Android| windows-</t>
+  </si>
+  <si>
+    <t>Frameworks: C#| Xamarin| Prism| Linq| API rest| OAUTH 2.0/ Tools: VisualStudio 2023/Db: SQLite| SQL Server 2014</t>
+  </si>
+  <si>
+    <t>tablet android| windows</t>
+  </si>
+  <si>
+    <t>Desarrollo e Implementación de una MVP Web para el pago de propinas con Integración de MercadoPago modelo MarketPlace| creación de comunidad y gestión para Restaurantes y Mozos</t>
+  </si>
+  <si>
+    <t>• Backend: MongoDb| Mongoose| Express| passport| axios| mocha
+• Frontend: React| React Hooks|React-router| Redux|PassportJS| Axios| Tailwind CSS| MercadoPago
 •Test: Jest y react-testing-library</t>
   </si>
   <si>
-    <t>Implementación exitosa de la primera fase del MVP</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>BN VALORES - GURUNET</t>
-  </si>
-  <si>
-    <t>mejoras en los tiempos de respuesta y mejor rendimiento de la app</t>
-  </si>
-  <si>
-    <t>RUTERO</t>
-  </si>
-  <si>
-    <t>•	Backend : Ruby 2.7, Rails 6.1,  Grape, Rodauth, JWT, ActiveModelSerializers, Rack CORS, HTTParty.
-•	Frontend : React, React Hooks,React-router, Redux,PassportJS, Axios, Tailwind CSS, MercadoPago
+    <t>Startup| Servicios</t>
+  </si>
+  <si>
+    <t>Desarrollo de mejoras| nuevas funcionalidades y mantención de aplicación que permite el monitoreo del mercado bursátil costarricense.</t>
+  </si>
+  <si>
+    <t>Frameworks: C#| Xamarin.Form 5.0| Prism| Syncfusion| refit| Polly./ Tools: VisualStudio 2023</t>
+  </si>
+  <si>
+    <t>•	Backend : Ruby 2.7| Rails 6.1|  Grape| Rodauth| JWT| ActiveModelSerializers| Rack CORS| HTTParty.
+•	Frontend : React| React Hooks|React-router| Redux|PassportJS| Axios| Tailwind CSS| MercadoPago
 •	Test: Jest y react-testing-library</t>
   </si>
   <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Implementación exitosa de la integración y componentes</t>
-  </si>
-  <si>
-    <t>Consultor/ Desarrollador senior</t>
-  </si>
-  <si>
-    <t>Desarrollo de múltiples servicios en diferentes entornos para el proyecto Hawkeye - Sistema de detección por video en bodegas de mercado libre</t>
-  </si>
-  <si>
-    <t>MERCADO LIBRE - UNX</t>
-  </si>
-  <si>
-    <t>•	Servicio Windows: C#, NET Core 5.0, Genetec SDK, AWS Cli, AWS Bucket S3.
+    <t>•	Servicio Windows: C#| NET Core 5.0| Genetec SDK| AWS Cli| AWS Bucket S3.
 •	Procesamiento de datos: Amazon RDS PostgreSQL.
-•	Servicios ApiRest: NodeJS, AWS Lambda, AWS API Gateway.
-•	Dashboard: Power BI, Google Data Studio.</t>
+•	Servicios ApiRest: NodeJS| AWS Lambda| AWS API Gateway.
+•	Dashboard: Power BI| Google Data Studio.</t>
   </si>
   <si>
     <t>•	Resolución de problema de SDK de genetec para selección y extracción en tiempo real de videos; 
-•	definición de métricas, kpi de dashboard y redefinición de data relevante a obtener de modelo ML.</t>
-  </si>
-  <si>
-    <t>Agroindustria/ Software</t>
-  </si>
-  <si>
-    <t>INSTITUTO NACIONAL DEL CAFÉ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultor/ Desarrollador senior </t>
-  </si>
-  <si>
-    <t>App: Xamarin, Prism, Linq, .Net Standard, API rest (Refit), OAUTH 2.0, SQLite.
-ApiRest: Node, Electron, Oracle 10g</t>
-  </si>
-  <si>
-    <t>reducción de un 40% en los tiempos de inspección y reducción en un 70% en los errores de captura de información</t>
-  </si>
-  <si>
-    <t>México</t>
-  </si>
-  <si>
-    <t>Financiera, Prendaria.</t>
-  </si>
-  <si>
-    <t>MULTIAPOYO PRESTALANA</t>
-  </si>
-  <si>
-    <t>Migración de sistema contable desarrollado en Windows form a asp.net core, módulo de pagos fijos y refrendos</t>
-  </si>
-  <si>
-    <t>Cumplimiento de la totalidad de la migración en los tiempos estimados del proyecto</t>
-  </si>
-  <si>
-    <t>SEGEGOB, Kibernum</t>
-  </si>
-  <si>
-    <t>Gobierno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultor/Líder técnico/Desarrollador senior. </t>
-  </si>
-  <si>
-    <t>•	Unificación y simplificación de los procesos de postulación de fondos concursables de 5 ministerios dentro del sistema, 
+•	definición de métricas| kpi de dashboard y redefinición de data relevante a obtener de modelo ML.</t>
+  </si>
+  <si>
+    <t>Desarrollo e Implementación de Modelo| APIRest y Aplicación movil de seguimiento e inspección en terreno de exportaciones</t>
+  </si>
+  <si>
+    <t>App: Xamarin| Prism| Linq| .Net Standard| API rest (Refit)| OAUTH 2.0| SQLite.
+ApiRest: Node| Electron| Oracle 10g</t>
+  </si>
+  <si>
+    <t>Desarrollo de plataforma con  aplicativos de gestion (Dashboar| Contratos| Auditoria) para la optimización y Automatización de Procesos Comerciales Internacionales para la Vicepresidencia de comercialización internacional</t>
+  </si>
+  <si>
+    <t>Node| React| Office UI Fabric Core| Office UI Fabric React| SharePoint Framework (SPFx)| Power Automate| Power BI| TypeScript| SharePoint online| SQL server.</t>
+  </si>
+  <si>
+    <t>Migración de sistema contable desarrollado en Windows form a asp.net core| módulo de pagos fijos y refrendos</t>
+  </si>
+  <si>
+    <t>Asp.Net Core .2.1| Entity Framework 6.2| Dapper| api rest| OAUTH 2.0| ReactJs| Redux| Node| SQL Server 2014 (Store Procedure| Trigger y Jobs)| JavaScript| Bootstrap| jquery| Css| Html5</t>
+  </si>
+  <si>
+    <t>Financiera| Prendaria.</t>
+  </si>
+  <si>
+    <t>SEGEGOB| Kibernum</t>
+  </si>
+  <si>
+    <t>Desarrollo de plataforma unificada para gestionar fondos concursables| mejorando la UX/UI| seguridad| autenticación y APIs para intercambio de información</t>
+  </si>
+  <si>
+    <t>Asp.Net MVC 4.5| Entity Framework 6.2| Razor| LINQ| Dapper| API Rest| OAUTH 2.0| SQL Server 2014 (Store Procedure| Trigger y Jobs)| JavaScript| Bootstrap| jQuery| CSS| Ajax</t>
+  </si>
+  <si>
+    <t>•	Unificación y simplificación de los procesos de postulación de fondos concursables de 5 ministerios dentro del sistema| 
 •	Lanzamiento del portal en los tiempos previstos del proyecto
 •	Aumento global de la tasa de postulación a los fondos en un 30% en el lanzamiento
 •	Reducción de 60% en los tiempos de postulación de acuerdo con encuestas con postulantes
 •	80% indicaron mejoras en la claridad y facilidad para postular.</t>
   </si>
   <si>
-    <t>Asp.Net MVC 4.5, Entity Framework 6.2, Razor, LINQ, Dapper, API Rest, OAUTH 2.0, SQL Server 2014 (Store Procedure, Trigger y Jobs), JavaScript, Bootstrap, jQuery, CSS, Ajax</t>
-  </si>
-  <si>
-    <t>CODELCO - AXITY</t>
-  </si>
-  <si>
-    <t>Node, React, Office UI Fabric Core, Office UI Fabric React, SharePoint Framework (SPFx), Power Automate, Power BI, TypeScript, SharePoint online, SQL server.</t>
-  </si>
-  <si>
-    <t>Incorporación de indicadores y métricas que permitieron dar una mejor visualización en la gestión de los procesos de comercialización y mejoras en la transparencia y normativa de los procesos</t>
-  </si>
-  <si>
-    <t>Destacado</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>FID SEGUROS</t>
-  </si>
-  <si>
-    <t>Seguros</t>
-  </si>
-  <si>
-    <t>Consultor/Dba senior</t>
-  </si>
-  <si>
-    <t>SQL Server, Report Service, Google Cloud SQL, Google DMS</t>
-  </si>
-  <si>
-    <t>Desarrollar un panel de monitorización en tiempo real de BD de SQL Server y detección de operaciones problemáticas y documentación y migración de base de datos diferentes entornos.</t>
-  </si>
-  <si>
-    <t>CORPORACIÓN SANTO TOMAS</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Implementación exitosa del proyecto</t>
-  </si>
-  <si>
-    <t>Educación</t>
-  </si>
-  <si>
-    <t>Planeación, desarrollo, implementación y mantención de Plataforma de postulación a concursos de investigación y postgrado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incorporación de indicadores y métricas
-Reducción en el rechazo de postulaciones de un 40% </t>
-  </si>
-  <si>
-    <t>TICKETPRO – PROSYS</t>
-  </si>
-  <si>
-    <t>Comercio</t>
-  </si>
-  <si>
-    <t>Diseño y desarrollo de Dashboard de gestión de venta de entradas</t>
-  </si>
-  <si>
-    <t>Java 1.8, Play Framework 2.4, PostgreSQL v10, JavaScript, Css, Html5, Bootstrap.</t>
-  </si>
-  <si>
-    <t>Implementación exitosa de la primera fase del panel de gestión.</t>
-  </si>
-  <si>
-    <t>HDI SEGUROS - PROSYS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultor/Desarrollador senior </t>
-  </si>
-  <si>
-    <t>Asp.Net MVC 4.5, ODAC, Entity Framework 6.2, Oracle 10g (Package y Jobs), JavaScript, Jquery, Css, Html5.</t>
-  </si>
-  <si>
-    <t>Reducción de promedio 70 días del proceso de aprobación de pago de facturas a menos de 30 días.</t>
-  </si>
-  <si>
-    <t>Planeación, desarrollo, implementación y mantención de Plataforma de gestión de inmuebles y contratos</t>
-  </si>
-  <si>
-    <t>SharePoint 2013, API.rest, BDC, audiencia, JavaScript, Bootstrap, jquery, css, html5, oracle.</t>
-  </si>
-  <si>
-    <t>Rediseño de look&amp;feel, mejoras y corrección de errores de la intranet de colaboradores y alumnos</t>
-  </si>
-  <si>
-    <t>Asp.Net 4.5, Php 5.5, SharePoint 2013, API REST, BDC, audiencia, JavaScript, Bootstrap, jquery, css, html5. Oracle 8g (Package y Jobs), SQL Server 2010.</t>
-  </si>
-  <si>
-    <t>•	Mejoras en rendimiento y tiempos de acceso de 1.30 min de acceso a   11 seg.
-•	Acceso móvil al portal
-•	Unificación de múltiples servicios con un solo acceso</t>
-  </si>
-  <si>
-    <t>ADEXUS</t>
-  </si>
-  <si>
-    <t>Planeación, desarrollo, implementación y mantención de Portal BI para el directorio</t>
-  </si>
-  <si>
-    <t>Sharepoint 2010, performancepoint, excel service, sql server, olap, bdc, audiencia</t>
-  </si>
-  <si>
-    <t>Implementación exitosa del Dashboard y reportes de detalle.</t>
-  </si>
-  <si>
-    <t>MINISTERIO DE EDUCACIÓN - ADEXUS</t>
-  </si>
-  <si>
-    <t>Diseño, desarrollo e implementación de Plataforma de Reconocimiento Oficial y Autorización de Funcionamiento, RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultor/Project manager/Desarrollador senior </t>
-  </si>
-  <si>
-    <t>Asp.Net 4.5, Php 5.4, Csharp, SharePoint 2010, API REST, BDC, user profile, JavaScript, Bootstrap, jquery, css, html5. postgreSQL, SQL Server 2010.</t>
-  </si>
-  <si>
-    <t>•	Implementación exitosa de la plataforma.
-•	Transparencia de los procesos de reconocimiento.
-•	En la etapa de lanzamiento se redujo en un 30% el tiempo completo de resolución.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPERINTENDENCIA DE EDUCACIÓN- </t>
-  </si>
-  <si>
-    <t>Diseño, desarrollo e implementación de Plataforma de gestión de procesos administrativos SIPA</t>
-  </si>
-  <si>
-    <t>•	Implementación exitosa de la plataforma.
-•	Transparencia de los procesos de inspección.
-•	La plataforma no se lanzó por cambio de gobierno y políticas</t>
-  </si>
-  <si>
-    <t>CORPORACIÓN SANTO TOMAS,</t>
-  </si>
-  <si>
-    <t>Asp.Net 4.5, Php 5.0, Csharp, VisualBasic.Net, SharePoint 2010, API REST, BDC, user profile, JavaScript, Bootstrap, jquery, css, html5. mysql, SQL Server 2010, Oracle 8.1.</t>
-  </si>
-  <si>
-    <t>Diseño, desarrollo y mantención del Portal de inteligencia de negocio corporativo</t>
-  </si>
-  <si>
-    <t>Sharepoint 2010 (bdc, webpart,audiencia), Performance point, excel service, reporting service, Csharp, sql server, Oracle 8.1, olap, javascript, css, html5, jquery.</t>
-  </si>
-  <si>
-    <t>ICONSTRUYE</t>
-  </si>
-  <si>
-    <t>Construcción</t>
-  </si>
-  <si>
-    <t>Csharp .Net Framework 4.0, Entity Framework, Microsoft BizTalk 2009 y Sql Server 2005, Web Service.</t>
-  </si>
-  <si>
-    <t>Implementación exitosa de la integración.</t>
-  </si>
-  <si>
-    <t>Consultor/Desarrollador senior.</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DE LAS AMÉRICAS</t>
-  </si>
-  <si>
-    <t>Diseño, definición y desarrollo Sistema de detección temprana de deserción de alumnos, MIS FASE I</t>
-  </si>
-  <si>
-    <t>BANCO BCI - ASICOM</t>
-  </si>
-  <si>
-    <t>Arquitectura, modelamiento, diseño y desarrollo de Aplicación de generación de reportes financieros para el depto. de contabilidad analítica</t>
-  </si>
-  <si>
-    <t>Jefe de Proyecto/Consultor/Desarrollador senior</t>
-  </si>
-  <si>
-    <t>Reducción de los tiempos de generación de reportes de 1 semana a menos de 10 min promedio</t>
-  </si>
-  <si>
-    <t>MINERA ESCONDIDA - ASICOM</t>
-  </si>
-  <si>
-    <t>Arquitectura, modelamiento, diseño y desarrollo de Portal de gestión y monitoreo de contratos/contratistas FLAMENCO</t>
-  </si>
-  <si>
-    <t>Minería</t>
-  </si>
-  <si>
-    <t>Jefe de Proyecto/Consultor/Desarrolladorsenior</t>
-  </si>
-  <si>
-    <t>Net SDK 2.0 (Csharp y Web Services), SharePoint Portal y SDK 2007, InfoPath Client, Excel Services y 
-KPI web part, MS SQL Server 2005 (Analisis Services y Reporting Services)</t>
-  </si>
-  <si>
-    <t>Implementación exitosa de la de la primera fase de la plataforma.</t>
-  </si>
-  <si>
-    <t>CÁMARA CHILENA DE LA CONSTRUCCIÓN - ASICOM</t>
-  </si>
-  <si>
-    <t>SharePoint server y sdk 2007, Microsoft Dynamics CRM y sdk 3.0; telerik, ajax.net y net sdk 2.0 (csharp, 
-asp.net, web services), SQL Server 2005.</t>
-  </si>
-  <si>
-    <t>CODELCO – TATA CONSULTING</t>
-  </si>
-  <si>
-    <t>•	Implementación exitosa de la plataforma.
-•	Transparencia y estandarización de los procesos de gestión de contratos. Y la definición de tipos de contratos de acuerdo al sector o servicio a contratar</t>
-  </si>
-  <si>
-    <t>Agroindustria</t>
-  </si>
-  <si>
-    <t>•	Implementación exitosa de la plataforma.
-•	Mejora en la tasa de resolución de reclamos de un 40%</t>
-  </si>
-  <si>
-    <t>Menor</t>
-  </si>
-  <si>
-    <t>Diseño, desarrollo, implementación y mantención de Plataforma de mesa de ayuda  y compras de clientes .</t>
-  </si>
-  <si>
-    <t>Equipo</t>
-  </si>
-  <si>
-    <t>Consultor/Desarrollador</t>
-  </si>
-  <si>
-    <t>Tareas</t>
-  </si>
-  <si>
-    <t>1.	Consultoría: Diseño y planificación del proyecto.
-2.Creación de sistema para registrar y gestionar solicitudes y reclamaciones de clientes.
-3.Creación de sistema que permite definir reglas y perfiles de compras para ofrecer beneficios a los clientes.</t>
-  </si>
-  <si>
-    <t>GEDIC, Desarrollo, implementación y mantención de Plataforma de Gestión de Contratos de la Vicepresidencia de abastecimiento.con Integración de sistemas internos y desarrollo de sistemas de personalización de documentos, formularios y workflows</t>
-  </si>
-  <si>
-    <t>Lider Técnico/ Consultor/ Desarrollador senior</t>
-  </si>
-  <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Frameworks: NET 1.1 (CSHARP, ASP.NET y web services), iTextSharp,  Nhibernate, hummingbird DM sdk/BD: SQL Server, Oracle 8.1/Tool: .Visual Studio .NET 2003, TOAD for Oracle</t>
-  </si>
-  <si>
-    <t>Frameworks: Java, J2EE,Spring Framework, Hibernate, JavaServer Faces JSF / Tool: JDeveloper 9.0i, TOAD for Oracle /DB: Oracle 9i.</t>
-  </si>
-  <si>
-    <t>movil  -android, ios-</t>
-  </si>
-  <si>
-    <t>tablet android, windows</t>
-  </si>
-  <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
-    <t>app, api</t>
-  </si>
-  <si>
-    <t>windows, web</t>
-  </si>
-  <si>
-    <t>Mejoras en 5 seg prom. en consultas y  8 seg en autenticación</t>
-  </si>
-  <si>
-    <t>Migración de app Banca movil Banpro de entorno Java a React Native (Fase I); desarrollo de mejoras y nuevas funcionalidades (Fase III)</t>
-  </si>
-  <si>
-    <t>Diseño, desarrollo de mejoras y nuevas funcionalidades, mantención de aplicación de punto de venta para Argentina, Chile, Uruguay -tablet Android, windows-</t>
-  </si>
-  <si>
-    <t>Consultor/Líder Técnico/Desarrollador senior</t>
-  </si>
-  <si>
-    <t>Desarrollo de mejoras, nuevas funcionalidades y mantención de aplicación que permite el monitoreo del mercado bursátil costarricense.</t>
-  </si>
-  <si>
-    <t>Desarrollo e Implementación de modulo y apis para aplicación web de reservas outdoor para Integración con MercadoPago modelo Marketplace y el modulo para gestionar el proceso de reserva  y autorización de clientes y vendedores</t>
-  </si>
-  <si>
-    <t>Desarrollo e Implementación de una MVP Web para el pago de propinas con Integración de MercadoPago modelo MarketPlace, creación de comunidad y gestión para Restaurantes y Mozos</t>
-  </si>
-  <si>
-    <t>Desarrollo e Implementación de Modelo, APIRest y Aplicación movil de seguimiento e inspección en terreno de exportaciones</t>
-  </si>
-  <si>
-    <t>Desarrollo de plataforma con  aplicativos de gestion (Dashboar, Contratos, Auditoria) para la optimización y Automatización de Procesos Comerciales Internacionales para la Vicepresidencia de comercialización internacional</t>
-  </si>
-  <si>
-    <t>Desarrollo de plataforma unificada para gestionar fondos concursables, mejorando la UX/UI, seguridad, autenticación y APIs para intercambio de información</t>
-  </si>
-  <si>
-    <t>Desarrollo de Plataforma de gestión, aprobación y pagos de Facturas e integración con servicios legacy de la empresa</t>
-  </si>
-  <si>
-    <t>Asp.Net 4.5, Csharp, SharePoint 2010, API REST, BDC, reporting services, Excel services, PerformancePoint, SQL Server 2010.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SharePoint server y sdk 2007, Visual Basic 6.0 y MS SQL Server 7.0, Net SDK 2.0, Excel 2000, Macros. </t>
-  </si>
-  <si>
-    <t>Asp.Net Core .2.1, Entity Framework 6.2, Dapper, api rest, OAUTH 2.0, ReactJs, Redux, Node, SQL Server 2014 (Store Procedure, Trigger y Jobs), JavaScript, Bootstrap, jquery, Css, Html5</t>
-  </si>
-  <si>
-    <t>Frameworks: Node.js, Expo CLI, React Native CLI, React Native Paper, React Native Elements, NativeBase, React Native UI Kitten, React Native (Navigation, Linking, Push Notification, Permissions, Device Info, FS, etc), Redux, Axios/ Tools: VisualCode</t>
-  </si>
-  <si>
-    <t>Frameworks: C#, Xamarin, Prism, Linq, API rest, OAUTH 2.0/ Tools: VisualStudio 2023/Db: SQLite, SQL Server 2014</t>
-  </si>
-  <si>
-    <t>Frameworks: C#, Xamarin.Form 5.0, Prism, Syncfusion, refit, Polly./ Tools: VisualStudio 2023</t>
-  </si>
-  <si>
-    <t>SharePoint 2013, Node, React, Office UI Fabric Core, Office UI Fabric React, SharePoint Framework (SPFx),webpart, audiencia, JavaScript, api. rest, Bootstrap, jquery, css, html5, Oracle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultor/Lider Tecnico/Desarrollador senior </t>
-  </si>
-  <si>
-    <t>Diseño, desarrollo e implementación de aplicaciones y funcionalidades para nuevo portal intranet para profesores, alumnos y funcionarios</t>
+    <t>SQL Server| Report Service| Google Cloud SQL| Google DMS</t>
+  </si>
+  <si>
+    <t>Planeación| desarrollo| implementación y mantención de Plataforma de postulación a concursos de investigación y postgrado.</t>
+  </si>
+  <si>
+    <t>SharePoint 2013| Node| React| Office UI Fabric Core| Office UI Fabric React| SharePoint Framework (SPFx)|webpart| audiencia| JavaScript| api. rest| Bootstrap| jquery| css| html5| Oracle.</t>
+  </si>
+  <si>
+    <t>Java 1.8| Play Framework 2.4| PostgreSQL v10| JavaScript| Css| Html5| Bootstrap.</t>
+  </si>
+  <si>
+    <t>Desarrollo de Plataforma de gestión| aprobación y pagos de Facturas e integración con servicios legacy de la empresa</t>
+  </si>
+  <si>
+    <t>Asp.Net MVC 4.5| ODAC| Entity Framework 6.2| Oracle 10g (Package y Jobs)| JavaScript| Jquery| Css| Html5.</t>
+  </si>
+  <si>
+    <t>Planeación| desarrollo| implementación y mantención de Plataforma de gestión de inmuebles y contratos</t>
+  </si>
+  <si>
+    <t>SharePoint 2013| API.rest| BDC| audiencia| JavaScript| Bootstrap| jquery| css| html5| oracle.</t>
+  </si>
+  <si>
+    <t>Rediseño de look&amp;feel| mejoras y corrección de errores de la intranet de colaboradores y alumnos</t>
+  </si>
+  <si>
+    <t>Asp.Net 4.5| Php 5.5| SharePoint 2013| API REST| BDC| audiencia| JavaScript| Bootstrap| jquery| css| html5. Oracle 8g (Package y Jobs)| SQL Server 2010.</t>
+  </si>
+  <si>
+    <t>Planeación| desarrollo| implementación y mantención de Portal BI para el directorio</t>
+  </si>
+  <si>
+    <t>Sharepoint 2010| performancepoint| excel service| sql server| olap| bdc| audiencia</t>
+  </si>
+  <si>
+    <t>Diseño| desarrollo e implementación de Plataforma de Reconocimiento Oficial y Autorización de Funcionamiento| RO</t>
+  </si>
+  <si>
+    <t>Asp.Net 4.5| Php 5.4| Csharp| SharePoint 2010| API REST| BDC| user profile| JavaScript| Bootstrap| jquery| css| html5. postgreSQL| SQL Server 2010.</t>
+  </si>
+  <si>
+    <t>Diseño| desarrollo e implementación de Plataforma de gestión de procesos administrativos SIPA</t>
+  </si>
+  <si>
+    <t>CORPORACIÓN SANTO TOMAS|</t>
+  </si>
+  <si>
+    <t>Diseño| desarrollo e implementación de aplicaciones y funcionalidades para nuevo portal intranet para profesores| alumnos y funcionarios</t>
+  </si>
+  <si>
+    <t>Asp.Net 4.5| Php 5.0| Csharp| VisualBasic.Net| SharePoint 2010| API REST| BDC| user profile| JavaScript| Bootstrap| jquery| css| html5. mysql| SQL Server 2010| Oracle 8.1.</t>
+  </si>
+  <si>
+    <t>Diseño| desarrollo y mantención del Portal de inteligencia de negocio corporativo</t>
+  </si>
+  <si>
+    <t>Sharepoint 2010 (bdc| webpart|audiencia)| Performance point| excel service| reporting service| Csharp| sql server| Oracle 8.1| olap| javascript| css| html5| jquery.</t>
+  </si>
+  <si>
+    <t>Csharp .Net Framework 4.0| Entity Framework| Microsoft BizTalk 2009 y Sql Server 2005| Web Service.</t>
+  </si>
+  <si>
+    <t>app| api</t>
+  </si>
+  <si>
+    <t>Diseño| definición y desarrollo Sistema de detección temprana de deserción de alumnos| MIS FASE I</t>
+  </si>
+  <si>
+    <t>Asp.Net 4.5| Csharp| SharePoint 2010| API REST| BDC| reporting services| Excel services| PerformancePoint| SQL Server 2010.</t>
   </si>
   <si>
     <t>Implementación exitosa de la plataforma.
-En la primera etapa, de acuerdo con acciones tomadas con los resultados iniciales, se logró una reducción de la deserción de un 15%</t>
-  </si>
-  <si>
-    <t>Diseño y desarrollo de aplicación de Integración de órdenes de compra del Marketplace de Iconstruye con la plataforma SAP de Salfa a traves de Biztalk</t>
-  </si>
-  <si>
-    <t>Desarrollo de aplicación de integración entre Microsoft Dynamics CRM y Sharepoint e Implementación de portal de socios de la cámara</t>
-  </si>
-  <si>
-    <t>Inicio</t>
-  </si>
-  <si>
-    <t>Fin</t>
-  </si>
-  <si>
-    <t>Tecnologia</t>
-  </si>
-  <si>
-    <t>Minería/ Software</t>
-  </si>
-  <si>
-    <t>Retail/ Software</t>
-  </si>
-  <si>
-    <t>Software SaaS/ Reservas</t>
-  </si>
-  <si>
-    <t>Software SaaS/ ERP</t>
-  </si>
-  <si>
-    <t>Gobierno/ Educación</t>
-  </si>
-  <si>
-    <t>Servicios/ Software</t>
-  </si>
-  <si>
-    <t>VIÑA SANTA RITA</t>
-  </si>
-  <si>
-    <t>MONOBLOCK</t>
-  </si>
-  <si>
-    <t>Migración de sitio Prestashop 1.6.1.19 a 1.7.8.8</t>
+En la primera etapa| de acuerdo con acciones tomadas con los resultados iniciales| se logró una reducción de la deserción de un 15%</t>
+  </si>
+  <si>
+    <t>Arquitectura| modelamiento| diseño y desarrollo de Aplicación de generación de reportes financieros para el depto. de contabilidad analítica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SharePoint server y sdk 2007| Visual Basic 6.0 y MS SQL Server 7.0| Net SDK 2.0| Excel 2000| Macros. </t>
+  </si>
+  <si>
+    <t>windows| web</t>
+  </si>
+  <si>
+    <t>Arquitectura| modelamiento| diseño y desarrollo de Portal de gestión y monitoreo de contratos/contratistas FLAMENCO</t>
+  </si>
+  <si>
+    <t>Net SDK 2.0 (Csharp y Web Services)| SharePoint Portal y SDK 2007| InfoPath Client| Excel Services y 
+KPI web part| MS SQL Server 2005 (Analisis Services y Reporting Services)</t>
+  </si>
+  <si>
+    <t>SharePoint server y sdk 2007| Microsoft Dynamics CRM y sdk 3.0; telerik| ajax.net y net sdk 2.0 (csharp| 
+asp.net| web services)| SQL Server 2005.</t>
+  </si>
+  <si>
+    <t>GEDIC| Desarrollo| implementación y mantención de Plataforma de Gestión de Contratos de la Vicepresidencia de abastecimiento.con Integración de sistemas internos y desarrollo de sistemas de personalización de documentos| formularios y workflows</t>
+  </si>
+  <si>
+    <t>Frameworks: NET 1.1 (CSHARP| ASP.NET y web services)| iTextSharp|  Nhibernate| hummingbird DM sdk/BD: SQL Server| Oracle 8.1/Tool: .Visual Studio .NET 2003| TOAD for Oracle</t>
+  </si>
+  <si>
+    <t>Diseño| desarrollo| implementación y mantención de Plataforma de mesa de ayuda  y compras de clientes .</t>
+  </si>
+  <si>
+    <t>Frameworks: Java| J2EE|Spring Framework| Hibernate| JavaServer Faces JSF / Tool: JDeveloper 9.0i| TOAD for Oracle /DB: Oracle 9i.</t>
+  </si>
+  <si>
+    <t>Prestashop 1.7.8.8| Mysql| Pho
+Servicio Windows: C#| NET Core 5.0| Entity Framework| AWS EC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creación de plugin para sincronización automática de pedidos via API| que se generan en diferentes plataformas de Marketplace (Mercado Libre| Linio| Falabella| Éxito y Homecenter) con un sitio web de WooCommerce| </t>
+  </si>
+  <si>
+    <t>Php| Wordpress| Mysql| Redux</t>
+  </si>
+  <si>
+    <t>Desarrollo de plugin de despacho multivendedor para wordpress con integración de Chilexpress| permitiendo a cada vendedor del marketplace ofrecer los servicios de envío| tarificación y seguimiento de manera individual y el cliente puede visualizar el desglose de tarificación por cada  vendedor.</t>
+  </si>
+  <si>
+    <t>Php| Wordpress| Mysql| Advanced Custom Fields (ACF)| Dokan Multivendor| WCFM Marketplace | WC Marketplace| Chilexpress Oficial para Woocommerce</t>
+  </si>
+  <si>
+    <t>Comercio| Impresión 3d</t>
+  </si>
+  <si>
+    <t>Sistema de cotización para cargas internacionales. Permite evaluar el costo| aceptar o rechazar la oferta| pagar y gestionar el proceso.</t>
+  </si>
+  <si>
+    <t>Php| Wordpress| Mysql| Advanced Custom Fields (ACF)y CPT UI custom post</t>
+  </si>
+  <si>
+    <t>Servicios| Importación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Php| Wordpress| Mysql| Advanced Custom Fields (ACF)| Ultimate Member| AnWP Football Leagues Premium </t>
+  </si>
+  <si>
+    <t>ONG| Asociación</t>
+  </si>
+  <si>
+    <t>Php| Wordpress| Mysql| Advanced Custom Fields (ACF)| wpml| yoast y contact form 7</t>
+  </si>
+  <si>
+    <t>Servicios| Idiomas</t>
+  </si>
+  <si>
+    <t>Sistema de cotización para importación de lanchas. Permite evaluar el costo| aceptar o rechazar la oferta| pagar y gestionar el proceso.</t>
+  </si>
+  <si>
+    <t>Php| Wordpress| Woocomerce</t>
+  </si>
+  <si>
+    <t>Php| Wordpress| Mysql| Advanced Custom Fields (ACF)</t>
+  </si>
+  <si>
+    <t>Php| Wordpress| Mysql| Advanced Custom Fields (ACF)| Measurement price calculator</t>
+  </si>
+  <si>
+    <t>Shopify| Liquid| Ruby</t>
   </si>
   <si>
     <t>•	Definición de actividades y proceso de segmentación de datos a importar
-•	Preparación y configuración de máquina virtual en AWS Sailt para operar con Prestashop
+•Preparación y configuración de máquina virtual en AWS Sailt para operar con Prestashop
 •	Preprocesamiento de datos para corregir caracteres conflictivos y redireccionamientos de urls que causaban bloqueos en la BD original
 •	Pruebas de migración en entorno de Prueba para posterior migración en entorno productivo de datos e imágenes.
-•	Migración, corrección y actualización de módulos y configuraciones para el nuevo modelo de desarrollo de Symfony.</t>
-  </si>
-  <si>
-    <t>Prestashop 1.7.8.8, Mysql,Php, Symfony , AWS Sailt</t>
-  </si>
-  <si>
-    <t>Migración exitosa en los tiempos establecidos</t>
-  </si>
-  <si>
-    <t>PELUFFO</t>
-  </si>
-  <si>
-    <t>Desarrollo y mantención de proceso de integración y sincronización de productos y órdenes de compra entre ERP de la empresa y  Prestashop.</t>
-  </si>
-  <si>
-    <t>Prestashop 1.7.8.8, Mysql, Pho
-Servicio Windows: C#, NET Core 5.0, Entity Framework, AWS EC2</t>
-  </si>
-  <si>
-    <t>•	Análisis, modelamiento y desarrollo de procedimientos almacenados y preprocesamiento de datos de BD del ERP para uso en la sincronización.
-•	Desarrollo de Servicio de Windows que detectan los cambios en la base del dato del ERP y actualiza a la API de PrestaShop, los cambios en el producto.
+•	Migración corrección y actualización de módulos y configuraciones para el nuevo modelo de desarrollo de Symfony.</t>
+  </si>
+  <si>
+    <t>•	Análisis modelamiento y desarrollo de procedimientos almacenados y preprocesamiento de datos de BD del ERP para uso en la sincronización.
+•	Desarrollo de Servicio de Windows que detectan los cambios en la base del dato del ERP y actualiza a la API de PrestaShop con los cambios en el producto.
 •	Desarrollo de Servicio de Windows que detectan las nuevas órdenes de compra de PrestaShop y actualiza ala BD del ERP.
 •	Mantención e desarrollo de nuevos requerimientos.</t>
   </si>
   <si>
-    <t>DISTRITO CAFETERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creación de plugin para sincronización automática de pedidos via API, que se generan en diferentes plataformas de Marketplace (Mercado Libre, Linio, Falabella, Éxito y Homecenter) con un sitio web de WooCommerce, </t>
-  </si>
-  <si>
-    <t>Php, Wordpress, Mysql, Redux</t>
-  </si>
-  <si>
-    <t>Implementación e integración exitosa del proyecto</t>
-  </si>
-  <si>
-    <t>Integración exitosa en los tiempos acordados</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>•	Análisis y preparación del entorno de desarrollo:  Determinación de los nuevos campos a mantener a nivel de orden e ítems por Marketplace y preparación del entorno general del plugin y su administración por cada integración.
-•	Desarrollo de componentes de integración que administran la integración con cada uno de los Marketplace, incluyendo la lógica de negocio para extraer las órdenes y la información requerida mediante cron jobs.
-•	Desarrollo de componentes de escucha y lectura de eventos de pedidos para los cambios de estado de los pedidos en cada Marketplace.
-•	Desarrollo de componentes de creación y actualización de pedido en WooCommerce desde las apis, incluyendo lógica de negocio para crear ordenes validas mediante SKU de productos, o dejarlas pendientes si alguno de los productos no existe.
-•	Pruebas y monitoreo: Ejecución de pruebas y monitoreo exhaustivo de generación y gestión de pedidos desde los Marketplace para verificación de correcto proceso de integración.</t>
-  </si>
-  <si>
-    <t>3djoin</t>
-  </si>
-  <si>
-    <t>Desarrollo de plugin de despacho multivendedor para wordpress con integración de Chilexpress, permitiendo a cada vendedor del marketplace ofrecer los servicios de envío, tarificación y seguimiento de manera individual y el cliente puede visualizar el desglose de tarificación por cada  vendedor.</t>
-  </si>
-  <si>
-    <t>Php, Wordpress, Mysql, Advanced Custom Fields (ACF), Dokan Multivendor, WCFM Marketplace , WC Marketplace, Chilexpress Oficial para Woocommerce</t>
-  </si>
-  <si>
-    <t>transparencia y simplificación de los proceso de despacho para clientes y vendedores.</t>
-  </si>
-  <si>
-    <t>Comercio, Impresión 3d</t>
-  </si>
-  <si>
-    <t>• Desarrollo de  panel de control de vendedor  para gestionar sus productos, pedidos, etiquetas y órdenes de trabajo con Chilexpress.
-• Desarrollo de funcionalidad que permite calcular el costo y el tiempo de envío de cada producto según la API de Chilexpress, y lo muestra al cliente final desglosado por vendedor.
-• Desarrollo de funcionalidad que permite al cliente final elegir la región, ciudad y localidad de destino, y ver las opciones de envío disponibles para su compra por proveedor y productos seleccionados.
-Desarrollo de sistema de  notificaciones que permite enviar al cliente final y al vendedor sobre el estado de los envíos.</t>
-  </si>
-  <si>
-    <t>Sistema de cotización para cargas internacionales. Permite evaluar el costo, aceptar o rechazar la oferta, pagar y gestionar el proceso.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freightcenter </t>
-  </si>
-  <si>
-    <t>Php, Wordpress, Mysql, Advanced Custom Fields (ACF)y CPT UI custom post</t>
-  </si>
-  <si>
-    <t>Aumento en la retención de clientes en un 40%</t>
-  </si>
-  <si>
-    <t>Servicios, Importación</t>
-  </si>
-  <si>
-    <t>· Desarrollo de solución mediante plugin que automatiza el proceso de pre-cotización para los clientes potenciales sin necesidad de autenticación.
-· Implementar las reglas de negocio que permitan calcular las cotizaciones automáticamente o derivarlas al servicio al cliente según corresponda.
-· Crear un área personal para los usuarios registrados donde puedan consultar el estado de sus pre-cotizaciones y recibir notificaciones.
-· Facilitar la aceptación o rechazo de las ofertas y el acceso a las pasarelas de pago adecuadas para cada país o región.
-Incorporar un chatbot que brinde soporte al cliente y resuelva problemas frecuentes con ayuda automatizada.</t>
-  </si>
-  <si>
-    <t>Laamba Futsal</t>
-  </si>
-  <si>
-    <t>Desarrollo de aplicación web que permite la organización y gestión de campeonatos de fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Php, Wordpress, Mysql, Advanced Custom Fields (ACF), Ultimate Member, AnWP Football Leagues Premium </t>
-  </si>
-  <si>
-    <t>Implementación exitosa de la primera fase del proyecto</t>
-  </si>
-  <si>
-    <t>ONG, Asociación</t>
-  </si>
-  <si>
     <t>• Desarrollo de  área  de administración para la gestión de las funcionalidades y mantenedores generales de la aplicación.
 • Desarrollo de  área de miembros  y panel de control por perfil de usuario para gestionar sus actividades definidas por cada rol.
-• Desarrollo de funcionalidad  que permite la creación automática  por diferentes tipos de competiciones, como eliminatorias, liguillas o mixtas de acuerdo a la liga seleccionada y temporada.
-• Personalización de plantillas de clubes, jugadores, estadios, árbitros y personal para cada temporada.
+• Desarrollo de funcionalidad  que permite la creación automática  por diferentes tipos de competiciones como eliminatorias liguillas o mixtas de acuerdo a la liga seleccionada y temporada.
+• Personalización de plantillas de clubes jugadores estadios árbitros y personal para cada temporada.
 • Mejoras en las funcionalidades de las clasificaciones y las estadísticas de los jugadores basándose en los eventos de los partidos.
 • Desarrollo de funcionalidades para la gestión de pagos  y manejo de las credenciales de los clubes.</t>
   </si>
   <si>
-    <t>Sysde - spanish121online.com</t>
-  </si>
-  <si>
-    <t>Diseño y desarrollo de tema con WordPress a medida y de manera nativa que permita la edición sencilla para el administrador con configuración para  varios idiomas .</t>
-  </si>
-  <si>
-    <t>Php, Wordpress, Mysql, Advanced Custom Fields (ACF), wpml, yoast y contact form 7</t>
-  </si>
-  <si>
-    <t>Implementación exitosa  del proyecto</t>
-  </si>
-  <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>Servicios, Idiomas</t>
-  </si>
-  <si>
-    <t>• Diseñar y desarrollar un tema con WordPress a medida que facilite la edición del contenido y el manejo de los idiomas.
-• Implementar un formulario de contacto con contact form 7
-• Hacer la web  compatible con varios navegadores y dispositivos
-Añadir animaciones básicas de navegación</t>
-  </si>
-  <si>
-    <t>Creación de plugin para sincronizar automáticamente los pedidos de sitio web de WooCommerce con  las APIs de empresa de despacho.</t>
-  </si>
-  <si>
-    <t>• Análisis y preparación del entorno de desarrollo: Desarrollo de plugin que gestiona la creación y sincronización automática de guías desde la API de la empresa de despacho al sitio de WooCommerce.
-• Desarrollo de panel de administración y campos necesarios para la gestión de guías en las ordenes de woocommerce
-• Desarrollo de los escucha y lectura de eventos de guías y actualización automatica de estatus en ordenes de woocommerce
-Pruebas y monitoreo: Ejecución de pruebas y monitoreo exhaustivo de generación y gestión de  guias para verificación de correcto proceso de integración.</t>
-  </si>
-  <si>
-    <t>Imporlan.cl</t>
-  </si>
-  <si>
-    <t>Sistema de cotización para importación de lanchas. Permite evaluar el costo, aceptar o rechazar la oferta, pagar y gestionar el proceso.</t>
-  </si>
-  <si>
-    <t>· Desarrollo de solución mediante plugin que automatiza el proceso de pre-cotización para los clientes potenciales sin necesidad de autenticación.
-· Implementar las reglas de negocio que permitan calcular las cotizaciones automáticamente o derivarlas al servicio al cliente según corresponda.
-· Crear un área personal para los usuarios registrados donde puedan consultar el estado de sus pre-cotizaciones y recibir notificaciones.
-Facilitar la aceptación o rechazo de las ofertas y el acceso a las pasarelas de pago adecuadas para cada país o región.</t>
-  </si>
-  <si>
-    <t>Thebabies.cr</t>
-  </si>
-  <si>
-    <t>Mejora de la velocidad de carga de un sitio woocommerce en producción.</t>
-  </si>
-  <si>
-    <t>Php, Wordpress, Woocomerce</t>
-  </si>
-  <si>
-    <t>Mejora del puntaje de performance del sitio de 79 a 57 puntos</t>
+    <t>• Desarrollo de  panel de control de vendedor  para gestionar sus productos pedidos etiquetas y órdenes de trabajo con Chilexpress.
+• Desarrollo de funcionalidad que permite calcular el costo y el tiempo de envío de cada producto según la API de Chilexpress y lo muestra al cliente final desglosado por vendedor.
+• Desarrollo de funcionalidad que permite al cliente final elegir la región ciudad y localidad de destino y ver las opciones de envío disponibles para su compra por proveedor y productos seleccionados.
+•Desarrollo de sistema de  notificaciones que permite enviar al cliente final y al vendedor sobre el estado de los envíos.</t>
+  </si>
+  <si>
+    <t>•	Análisis y preparación del entorno de desarrollo:  Determinación de los nuevos campos a mantener a nivel de orden e ítems por Marketplace y preparación del entorno general del plugin y su administración por cada integración.
+•	Desarrollo de componentes de integración que administran la integración con cada uno de los Marketplace incluyendo la lógica de negocio para extraer las órdenes y la información requerida mediante cron jobs.
+•	Desarrollo de componentes de escucha y lectura de eventos de pedidos para los cambios de estado de los pedidos en cada Marketplace.
+•	Desarrollo de componentes de creación y actualización de pedido en WooCommerce desde las apis incluyendo lógica de negocio para crear ordenes validas mediante SKU de productos o dejarlas pendientes si alguno de los productos no existe.
+•	Pruebas y monitoreo: Ejecución de pruebas y monitoreo exhaustivo de generación y gestión de pedidos desde los Marketplace para verificación de correcto proceso de integración.</t>
+  </si>
+  <si>
+    <t>•Desarrollo de solución mediante plugin que automatiza el proceso de pre-cotización para los clientes potenciales sin necesidad de autenticación.
+•Implementar las reglas de negocio que permitan calcular las cotizaciones automáticamente o derivarlas al servicio al cliente según corresponda.
+• Crear un área personal para los usuarios registrados donde puedan consultar el estado de sus pre-cotizaciones y recibir notificaciones.
+•Facilitar la aceptación o rechazo de las ofertas y el acceso a las pasarelas de pago adecuadas para cada país o región.
+•Incorporar un chatbot que brinde soporte al cliente y resuelva problemas frecuentes con ayuda automatizada.</t>
+  </si>
+  <si>
+    <t>• Desarrollo de solución mediante plugin que automatiza el proceso de pre-cotización para los clientes potenciales sin necesidad de autenticación.
+• Implementar las reglas de negocio que permitan calcular las cotizaciones automáticamente o derivarlas al servicio al cliente según corresponda.
+• Crear un área personal para los usuarios registrados donde puedan consultar el estado de sus pre-cotizaciones y recibir notificaciones.
+•Facilitar la aceptación o rechazo de las ofertas y el acceso a las pasarelas de pago adecuadas para cada país o región.</t>
   </si>
   <si>
     <t xml:space="preserve">• Análisis de métricas del sitio para determinar los principales problemas de carga de pagina
-• Eliminación por código, de css y javascript innecesarios de las páginas de mayor uso del sitio
-Corrección y optimización de funciones personalizadas del sitio </t>
-  </si>
-  <si>
-    <t>Compukaed - D12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creación de plugin que permita validar el DNI de un comprador  contra Api del gobierno del Perú (SUNAT y RENIEC)en el checkout (empresa o individuo) </t>
-  </si>
-  <si>
-    <t>Php, Wordpress, Mysql, Advanced Custom Fields (ACF)</t>
-  </si>
-  <si>
-    <t>Perú</t>
-  </si>
-  <si>
-    <t>· Desarrollo de solución mediante plugin con area de administración para el manejo de las apis y lso campos adicionales del registro de empresa o individuo
-Implementación de consultas a las apis y reglas de negocio que permitan validar el registro del comprador</t>
-  </si>
-  <si>
-    <t>Madeinitaly</t>
-  </si>
-  <si>
-    <t>Plugin para agregar propiedades y cálculos adicionales en productos</t>
-  </si>
-  <si>
-    <t>Php, Wordpress, Mysql, Advanced Custom Fields (ACF), Measurement price calculator</t>
-  </si>
-  <si>
-    <t>Panamá</t>
-  </si>
-  <si>
-    <t>· Desarrollo de funcionalidad para desplegar nuevos datos en  ficha de producto, carrito de compra y chechout.
-· Desarrollo de funcionalidad para que las operaciones de cálculo determinen el precio final del producto
-Desarrollo de funcionalidad en el área de administración para su configuración y forma de cálculo de los nuevos campos</t>
-  </si>
-  <si>
-    <t>Marae</t>
-  </si>
-  <si>
-    <t>Desarro de tema personalizado para Shopify con Liquid</t>
-  </si>
-  <si>
-    <t>Shopify, Liquid, Ruby</t>
-  </si>
-  <si>
-    <t>· Diseñar y desarrollar un tema con Liquid y Shopify a medida para ecommerce.
-· Desarrollar de funcionalidades y paginas específicas de despliegue para la navegación y caracterización de productos.
-Hacer la web  compatible con varios navegadores y dispositivos</t>
+• Eliminación por código de css y javascript innecesarios de las páginas de mayor uso del sitio
+•Corrección y optimización de funciones personalizadas del sitio </t>
+  </si>
+  <si>
+    <t>•Desarrollo de solución mediante plugin con area de administración para el manejo de las apis y lso campos adicionales del registro de empresa o individuo
+•Implementación de consultas a las apis y reglas de negocio que permitan validar el registro del comprador</t>
+  </si>
+  <si>
+    <t>•Desarrollo de funcionalidad para desplegar nuevos datos en  ficha de producto carrito de compra y chechout.
+• Desarrollo de funcionalidad para que las operaciones de cálculo determinen el precio final del producto
+•Desarrollo de funcionalidad en el área de administración para su configuración y forma de cálculo de los nuevos campos</t>
+  </si>
+  <si>
+    <t>•Diseñar y desarrollar un tema con Liquid y Shopify a medida para ecommerce.
+•Desarrollar de funcionalidades y paginas específicas de despliegue para la navegación y caracterización de productos.
+•Hacer la web  compatible con varios navegadores y dispositivos</t>
+  </si>
+  <si>
+    <t>•Consultoría: Diseño y planificación del proyecto.
+•Creación de sistema para registrar y gestionar solicitudes y reclamaciones de clientes.
+•Creación de sistema que permite definir reglas y perfiles de compras para ofrecer beneficios a los clientes.</t>
   </si>
 </sst>
 </file>
@@ -1175,9 +1175,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ABA82E-A10A-479A-BB9A-7FDE863A1455}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,7 @@
     <col min="9" max="9" width="37.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="1"/>
     <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="41.5703125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
@@ -1202,13 +1202,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1217,10 +1217,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1232,10 +1232,10 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -1243,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3">
         <v>44228</v>
@@ -1252,7 +1252,7 @@
         <v>45231</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>134</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -1261,10 +1261,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>133</v>
+        <v>89</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
@@ -1273,15 +1273,15 @@
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="36" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3">
         <v>44501</v>
@@ -1290,7 +1290,7 @@
         <v>44958</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1299,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -1308,10 +1308,10 @@
         <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -1319,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C4" s="3">
         <v>45139</v>
@@ -1328,36 +1328,36 @@
         <v>45261</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3">
         <v>44774</v>
@@ -1366,7 +1366,7 @@
         <v>44986</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1375,27 +1375,27 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3">
         <v>44896</v>
@@ -1404,36 +1404,36 @@
         <v>45017</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>161</v>
+        <v>101</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3">
         <v>44409</v>
@@ -1442,36 +1442,36 @@
         <v>44531</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3">
         <v>44075</v>
@@ -1480,36 +1480,36 @@
         <v>44136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
         <v>43739</v>
@@ -1518,36 +1518,36 @@
         <v>43952</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C10" s="3">
         <v>43617</v>
@@ -1556,7 +1556,7 @@
         <v>43770</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1565,27 +1565,27 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3">
         <v>43405</v>
@@ -1594,36 +1594,36 @@
         <v>43586</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G11" s="1">
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3">
         <v>44228</v>
@@ -1632,36 +1632,36 @@
         <v>44287</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>53</v>
+        <v>166</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3">
         <v>42948</v>
@@ -1670,36 +1670,36 @@
         <v>43405</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3">
         <v>43282</v>
@@ -1708,7 +1708,7 @@
         <v>43344</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1717,27 +1717,27 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3">
         <v>42948</v>
@@ -1746,36 +1746,36 @@
         <v>43405</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>42217</v>
@@ -1784,36 +1784,36 @@
         <v>42948</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3">
         <v>42401</v>
@@ -1822,36 +1822,36 @@
         <v>42522</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3">
         <v>42036</v>
@@ -1860,36 +1860,36 @@
         <v>42339</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>176</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3">
         <v>41671</v>
@@ -1898,36 +1898,36 @@
         <v>42339</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>163</v>
+        <v>103</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3">
         <v>41334</v>
@@ -1936,36 +1936,36 @@
         <v>42339</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" s="1">
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3">
         <v>40513</v>
@@ -1974,36 +1974,36 @@
         <v>41244</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1">
         <v>8</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>88</v>
+        <v>183</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3">
         <v>40391</v>
@@ -2012,7 +2012,7 @@
         <v>41244</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2021,27 +2021,27 @@
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>90</v>
+        <v>185</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C23" s="3">
         <v>40210</v>
@@ -2050,36 +2050,36 @@
         <v>40422</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>93</v>
+        <v>186</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C24" s="3">
         <v>39508</v>
@@ -2088,36 +2088,36 @@
         <v>40148</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C25" s="3">
         <v>39326</v>
@@ -2126,36 +2126,36 @@
         <v>39417</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3">
         <v>39203</v>
@@ -2164,36 +2164,36 @@
         <v>39326</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C27" s="3">
         <v>39022</v>
@@ -2202,36 +2202,36 @@
         <v>39173</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="G27" s="1">
         <v>4</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="I27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3">
         <v>37987</v>
@@ -2240,36 +2240,36 @@
         <v>39052</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="G28" s="1">
         <v>6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C29" s="3">
         <v>37681</v>
@@ -2278,39 +2278,39 @@
         <v>37956</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="156" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C30" s="3">
         <v>44986</v>
@@ -2319,7 +2319,7 @@
         <v>45047</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
@@ -2328,30 +2328,30 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="156" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>171</v>
+        <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C31" s="3">
         <v>44652</v>
@@ -2360,7 +2360,7 @@
         <v>45170</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>172</v>
+        <v>110</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -2369,30 +2369,30 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>174</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="276" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C32" s="3">
         <v>45139</v>
@@ -2401,7 +2401,7 @@
         <v>45231</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>9</v>
@@ -2410,30 +2410,30 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>182</v>
+        <v>115</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C33" s="3">
         <v>44562</v>
@@ -2442,7 +2442,7 @@
         <v>44713</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>9</v>
@@ -2451,30 +2451,30 @@
         <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="192" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C34" s="3">
         <v>44774</v>
@@ -2483,7 +2483,7 @@
         <v>44866</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>9</v>
@@ -2492,30 +2492,30 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3">
         <v>44621</v>
@@ -2524,7 +2524,7 @@
         <v>44805</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>195</v>
+        <v>120</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>9</v>
@@ -2533,30 +2533,30 @@
         <v>2</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>197</v>
+        <v>121</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="96" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C36" s="3">
         <v>44256</v>
@@ -2565,7 +2565,7 @@
         <v>44287</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>201</v>
+        <v>123</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>9</v>
@@ -2574,30 +2574,30 @@
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C37" s="3">
         <v>44621</v>
@@ -2606,7 +2606,7 @@
         <v>44652</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>9</v>
@@ -2615,27 +2615,27 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="156" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C38" s="3">
         <v>44256</v>
@@ -2644,7 +2644,7 @@
         <v>44256</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>9</v>
@@ -2653,30 +2653,30 @@
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>178</v>
+        <v>112</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>212</v>
+        <v>130</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C39" s="3">
         <v>44621</v>
@@ -2685,7 +2685,7 @@
         <v>44287</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>9</v>
@@ -2694,30 +2694,30 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>217</v>
+        <v>133</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3">
         <v>44256</v>
@@ -2726,7 +2726,7 @@
         <v>44652</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>9</v>
@@ -2735,30 +2735,30 @@
         <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="108" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C41" s="3">
         <v>44228</v>
@@ -2767,7 +2767,7 @@
         <v>44256</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>9</v>
@@ -2776,30 +2776,30 @@
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>227</v>
+        <v>139</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="C42" s="3">
         <v>43678</v>
@@ -2808,7 +2808,7 @@
         <v>43739</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>9</v>
@@ -2817,22 +2817,22 @@
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">

--- a/assets/docs/Curriculum.xlsx
+++ b/assets/docs/Curriculum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00.GitHub\leoespinoza.github.io\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC7B3C6-314F-41C5-BDB7-A60C6C8E411E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55827E67-EF38-41A9-898E-AF60B0441400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{2BCBF2E3-DDAA-477D-AF21-CE09724EFD16}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="233">
   <si>
     <t>Empresa</t>
   </si>
@@ -146,12 +146,6 @@
     <t>Incorporación de indicadores y métricas que permitieron dar una mejor visualización en la gestión de los procesos de comercialización y mejoras en la transparencia y normativa de los procesos</t>
   </si>
   <si>
-    <t>Destacado</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>FID SEGUROS</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
   </si>
   <si>
     <t>CORPORACIÓN SANTO TOMAS</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>Implementación exitosa del proyecto</t>
@@ -471,9 +462,6 @@
   </si>
   <si>
     <t>Marae</t>
-  </si>
-  <si>
-    <t>Desarro de tema personalizado para Shopify con Liquid</t>
   </si>
   <si>
     <t>Prestashop 1.7.8.8| Mysql|Php| Symfony | AWS Sailt</t>
@@ -796,6 +784,24 @@
     <t>•Consultoría: Diseño y planificación del proyecto.
 •Creación de sistema para registrar y gestionar solicitudes y reclamaciones de clientes.
 •Creación de sistema que permite definir reglas y perfiles de compras para ofrecer beneficios a los clientes.</t>
+  </si>
+  <si>
+    <t>Php| Wordpress| Mysql| Advanced Custom Fields (ACF) y CPT UI custom post</t>
+  </si>
+  <si>
+    <t>Desarrollo de tema personalizado para Shopify con Liquid</t>
+  </si>
+  <si>
+    <t>Medio-Menor</t>
+  </si>
+  <si>
+    <t>Tamaño</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Medio-Mayor</t>
   </si>
 </sst>
 </file>
@@ -1175,15 +1181,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ABA82E-A10A-479A-BB9A-7FDE863A1455}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="46.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.140625" style="1" customWidth="1"/>
@@ -1197,18 +1203,18 @@
     <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1217,10 +1223,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1232,10 +1238,10 @@
         <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -1243,7 +1249,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="C2" s="3">
         <v>44228</v>
@@ -1252,7 +1258,7 @@
         <v>45231</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -1261,10 +1267,10 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>7</v>
@@ -1273,7 +1279,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.25">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="C3" s="3">
         <v>44501</v>
@@ -1290,7 +1296,7 @@
         <v>44958</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
@@ -1299,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>12</v>
@@ -1308,10 +1314,10 @@
         <v>10</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -1319,7 +1325,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="C4" s="3">
         <v>45139</v>
@@ -1328,7 +1334,7 @@
         <v>45261</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -1337,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>15</v>
@@ -1346,10 +1352,10 @@
         <v>10</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="36" x14ac:dyDescent="0.25">
@@ -1357,7 +1363,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="C5" s="3">
         <v>44774</v>
@@ -1366,7 +1372,7 @@
         <v>44986</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1375,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>18</v>
@@ -1387,7 +1393,7 @@
         <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -1395,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="C6" s="3">
         <v>44896</v>
@@ -1404,7 +1410,7 @@
         <v>45017</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -1413,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
@@ -1422,10 +1428,10 @@
         <v>20</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.25">
@@ -1433,7 +1439,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="C7" s="3">
         <v>44409</v>
@@ -1451,19 +1457,19 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.25">
@@ -1471,7 +1477,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="C8" s="3">
         <v>44075</v>
@@ -1480,7 +1486,7 @@
         <v>44136</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>27</v>
@@ -1489,7 +1495,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>28</v>
@@ -1501,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -1509,7 +1515,7 @@
         <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="C9" s="3">
         <v>43739</v>
@@ -1518,16 +1524,16 @@
         <v>43952</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1">
         <v>5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>35</v>
@@ -1536,10 +1542,10 @@
         <v>20</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="48" x14ac:dyDescent="0.25">
@@ -1547,7 +1553,7 @@
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="C10" s="3">
         <v>43617</v>
@@ -1556,7 +1562,7 @@
         <v>43770</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -1565,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>31</v>
@@ -1574,18 +1580,18 @@
         <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="144" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>231</v>
       </c>
       <c r="C11" s="3">
         <v>43405</v>
@@ -1594,7 +1600,7 @@
         <v>43586</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
@@ -1603,10 +1609,10 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>20</v>
@@ -1615,15 +1621,15 @@
         <v>32</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C12" s="3">
         <v>44228</v>
@@ -1632,36 +1638,36 @@
         <v>44287</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C13" s="3">
         <v>42948</v>
@@ -1670,7 +1676,7 @@
         <v>43405</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>14</v>
@@ -1679,27 +1685,27 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="C14" s="3">
         <v>43282</v>
@@ -1708,7 +1714,7 @@
         <v>43344</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1717,27 +1723,27 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C15" s="3">
         <v>42948</v>
@@ -1746,36 +1752,36 @@
         <v>43405</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C16" s="3">
         <v>42217</v>
@@ -1784,7 +1790,7 @@
         <v>42948</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>14</v>
@@ -1793,27 +1799,27 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C17" s="3">
         <v>42401</v>
@@ -1822,7 +1828,7 @@
         <v>42522</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>14</v>
@@ -1831,27 +1837,27 @@
         <v>1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C18" s="3">
         <v>42036</v>
@@ -1860,7 +1866,7 @@
         <v>42339</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>14</v>
@@ -1869,27 +1875,27 @@
         <v>1</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C19" s="3">
         <v>41671</v>
@@ -1898,36 +1904,36 @@
         <v>42339</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G19" s="1">
         <v>3</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C20" s="3">
         <v>41334</v>
@@ -1936,7 +1942,7 @@
         <v>42339</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -1945,27 +1951,27 @@
         <v>3</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C21" s="3">
         <v>40513</v>
@@ -1974,36 +1980,36 @@
         <v>41244</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G21" s="1">
         <v>8</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C22" s="3">
         <v>40391</v>
@@ -2012,7 +2018,7 @@
         <v>41244</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
@@ -2021,27 +2027,27 @@
         <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C23" s="3">
         <v>40210</v>
@@ -2050,36 +2056,36 @@
         <v>40422</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G23" s="1">
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C24" s="3">
         <v>39508</v>
@@ -2088,36 +2094,36 @@
         <v>40148</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G24" s="1">
         <v>5</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C25" s="3">
         <v>39326</v>
@@ -2126,19 +2132,19 @@
         <v>39417</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>20</v>
@@ -2147,15 +2153,15 @@
         <v>8</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="48" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C26" s="3">
         <v>39203</v>
@@ -2164,36 +2170,36 @@
         <v>39326</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C27" s="3">
         <v>39022</v>
@@ -2202,36 +2208,36 @@
         <v>39173</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G27" s="1">
         <v>4</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C28" s="3">
         <v>37987</v>
@@ -2240,36 +2246,36 @@
         <v>39052</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G28" s="1">
         <v>6</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="C29" s="3">
         <v>37681</v>
@@ -2278,39 +2284,39 @@
         <v>37956</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="156" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="C30" s="3">
         <v>44986</v>
@@ -2319,7 +2325,7 @@
         <v>45047</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>9</v>
@@ -2328,30 +2334,30 @@
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="156" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="C31" s="3">
         <v>44652</v>
@@ -2360,7 +2366,7 @@
         <v>45170</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>9</v>
@@ -2369,30 +2375,30 @@
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="276" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" s="3">
         <v>45139</v>
@@ -2401,7 +2407,7 @@
         <v>45231</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>9</v>
@@ -2410,30 +2416,30 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="3">
         <v>44562</v>
@@ -2442,7 +2448,7 @@
         <v>44713</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>9</v>
@@ -2451,30 +2457,30 @@
         <v>2</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="192" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="3">
         <v>44774</v>
@@ -2483,7 +2489,7 @@
         <v>44866</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>9</v>
@@ -2492,30 +2498,30 @@
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C35" s="3">
         <v>44621</v>
@@ -2524,7 +2530,7 @@
         <v>44805</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>9</v>
@@ -2533,30 +2539,30 @@
         <v>2</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="96" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C36" s="3">
         <v>44256</v>
@@ -2565,7 +2571,7 @@
         <v>44287</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>9</v>
@@ -2574,30 +2580,30 @@
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C37" s="3">
         <v>44621</v>
@@ -2606,7 +2612,7 @@
         <v>44652</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>9</v>
@@ -2615,27 +2621,27 @@
         <v>1</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="156" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" s="3">
         <v>44256</v>
@@ -2644,7 +2650,7 @@
         <v>44256</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>9</v>
@@ -2653,30 +2659,30 @@
         <v>1</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C39" s="3">
         <v>44621</v>
@@ -2685,7 +2691,7 @@
         <v>44287</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>9</v>
@@ -2694,30 +2700,30 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" s="3">
         <v>44256</v>
@@ -2726,7 +2732,7 @@
         <v>44652</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>9</v>
@@ -2735,30 +2741,30 @@
         <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="108" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C41" s="3">
         <v>44228</v>
@@ -2767,7 +2773,7 @@
         <v>44256</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>9</v>
@@ -2776,30 +2782,30 @@
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="84" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C42" s="3">
         <v>43678</v>
@@ -2808,7 +2814,7 @@
         <v>43739</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>9</v>
@@ -2817,22 +2823,22 @@
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
